--- a/Unity/Assets/Config/Excel/UnitConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChangeConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\ET8-Luban\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE5439-399B-41D3-933E-CC9CBB205027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA29B9B-4FA0-46E8-B187-FF2A81541977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>带有强力攻击技能</t>
   </si>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>测试说明</t>
   </si>
   <si>
@@ -134,6 +130,22 @@
   </si>
   <si>
     <t>带有强力攻击技能4</t>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#ref=AIConfigCategory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -559,13 +571,13 @@
     <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.625" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -579,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -590,8 +602,11 @@
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -611,13 +626,16 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -628,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -640,13 +658,16 @@
         <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1001</v>
       </c>
@@ -654,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>0</v>
@@ -671,8 +692,11 @@
       <c r="I4" s="6">
         <v>68</v>
       </c>
+      <c r="J4" s="5">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>1002</v>
       </c>
@@ -680,13 +704,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
@@ -697,8 +721,11 @@
       <c r="I5" s="6">
         <v>78</v>
       </c>
+      <c r="J5" s="5">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6">
         <v>1003</v>
       </c>
@@ -706,13 +733,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -723,8 +750,11 @@
       <c r="I6" s="6">
         <v>68</v>
       </c>
+      <c r="J6" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>1004</v>
@@ -733,13 +763,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="6">
         <v>2</v>
@@ -749,6 +779,9 @@
       </c>
       <c r="I7" s="6">
         <v>78</v>
+      </c>
+      <c r="J7" s="5">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
